--- a/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/ANTECEDENTES_prediccion.xlsx
+++ b/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/ANTECEDENTES_prediccion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA SVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACIÓN\GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN\OPTUNA SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D68B2B1-9674-4F91-999E-D9A520D1FD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940DB76B-266E-470A-AD25-46C00C497819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10460" yWindow="600" windowWidth="9240" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1390</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>970</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1467,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="C2" s="2">
         <v>0.58699999999999997</v>
@@ -1478,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="C3" s="2">
         <v>0.41299999999999998</v>
